--- a/src/test/resources/TestSteps.xlsx
+++ b/src/test/resources/TestSteps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teena Anitha Lobo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teena Anitha Lobo\eclipse-workspace\KeywordDrivenProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA7012-BA3A-49AA-8604-FCDB8DD77E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5370307-C8AD-43DF-9E71-30A65F36DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>TestStep</t>
   </si>
   <si>
-    <t>Locator</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -61,27 +58,18 @@
     <t>Enter Email Address</t>
   </si>
   <si>
-    <t>id=email</t>
-  </si>
-  <si>
     <t>ansonwalder@microsoft.com</t>
   </si>
   <si>
     <t>Enter Password</t>
   </si>
   <si>
-    <t>id=pass</t>
-  </si>
-  <si>
     <t>anson@1234</t>
   </si>
   <si>
     <t>Click Login Button</t>
   </si>
   <si>
-    <t>name=login</t>
-  </si>
-  <si>
     <t>Sendkeys</t>
   </si>
   <si>
@@ -97,7 +85,31 @@
     <t>Click Create New Account link</t>
   </si>
   <si>
-    <t>linkText=Create New Account</t>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Create New Account</t>
   </si>
 </sst>
 </file>
@@ -452,135 +464,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{D3288D12-548C-44CD-991A-7B243AEEABEF}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{E9A2B9E7-F467-48F4-A04F-0F3FD2B66C6E}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{8F4D7322-C3BF-468C-8ED8-4324AD3B46EF}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{D3288D12-548C-44CD-991A-7B243AEEABEF}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E9A2B9E7-F467-48F4-A04F-0F3FD2B66C6E}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{8F4D7322-C3BF-468C-8ED8-4324AD3B46EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -588,107 +626,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82251A7A-227F-488C-BF9E-98414D729293}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{ACFB7CD4-83FB-4E84-87E3-913C3D6A18FD}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{ACFB7CD4-83FB-4E84-87E3-913C3D6A18FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
